--- a/Bimeh/Bime_14010116-F.xlsx
+++ b/Bimeh/Bime_14010116-F.xlsx
@@ -456,15 +456,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -480,10 +471,55 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -513,50 +549,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -841,7 +841,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14:D14"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -853,114 +853,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="43" t="s">
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="33"/>
+      <c r="G1" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="42"/>
+      <c r="H1" s="34"/>
     </row>
     <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A2" s="47"/>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="44" t="s">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="44"/>
-      <c r="G2" s="39" t="s">
+      <c r="F2" s="36"/>
+      <c r="G2" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="40"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="29"/>
     </row>
     <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="52" t="s">
+      <c r="A4" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="28"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A5" s="49" t="s">
+      <c r="A5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="50"/>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50" t="s">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="51"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="26"/>
     </row>
     <row r="6" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50" t="s">
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="51"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="26"/>
     </row>
     <row r="7" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A7" s="49" t="s">
+      <c r="A7" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50" t="s">
+      <c r="B7" s="25"/>
+      <c r="C7" s="25"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="51"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
     </row>
     <row r="8" spans="1:8" ht="18" x14ac:dyDescent="0.45">
-      <c r="A8" s="49" t="s">
+      <c r="A8" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50" t="s">
+      <c r="B8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="51"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="26"/>
     </row>
     <row r="9" spans="1:8" ht="18" x14ac:dyDescent="0.45">
       <c r="A9" s="2"/>
@@ -976,198 +976,203 @@
       <c r="A10" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="27"/>
-      <c r="D10" s="27"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
       <c r="E10" s="11" t="s">
         <v>11</v>
       </c>
       <c r="F10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="27" t="s">
+      <c r="G10" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="28"/>
+      <c r="H10" s="29"/>
     </row>
     <row r="11" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>1</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
+      <c r="C11" s="22"/>
+      <c r="D11" s="23"/>
       <c r="E11" s="18" t="s">
         <v>30</v>
       </c>
       <c r="F11" s="1">
         <v>391200</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="23"/>
+      <c r="G11" s="1">
+        <v>312960</v>
+      </c>
+      <c r="H11" s="1">
+        <f>F11-G11</f>
+        <v>78240</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>2</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="22"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="17"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="23"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="20"/>
     </row>
     <row r="13" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="16">
         <v>3</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="23"/>
       <c r="E13" s="17"/>
       <c r="F13" s="1"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="23"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="20"/>
     </row>
     <row r="14" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="16">
         <v>4</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="23"/>
       <c r="E14" s="15"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="23"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="20"/>
     </row>
     <row r="15" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="16">
         <v>5</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="23"/>
       <c r="E15" s="15"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="23"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="20"/>
     </row>
     <row r="16" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="16">
         <v>6</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="23"/>
       <c r="E16" s="14"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="20"/>
     </row>
     <row r="17" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="16">
         <v>7</v>
       </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23"/>
       <c r="E17" s="15"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="23"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="16">
         <v>8</v>
       </c>
-      <c r="B18" s="24"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="23"/>
       <c r="E18" s="15"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="23"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="16">
         <v>9</v>
       </c>
-      <c r="B19" s="24"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="22"/>
+      <c r="D19" s="23"/>
       <c r="E19" s="15"/>
       <c r="F19" s="1"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="23"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="20"/>
     </row>
     <row r="20" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="16">
         <v>10</v>
       </c>
-      <c r="B20" s="24"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="23"/>
       <c r="E20" s="15"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="23"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="20"/>
     </row>
     <row r="21" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="16">
         <v>11</v>
       </c>
-      <c r="B21" s="24"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="22"/>
+      <c r="D21" s="23"/>
       <c r="E21" s="15"/>
       <c r="F21" s="1"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="23"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="20"/>
     </row>
     <row r="22" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="16">
         <v>12</v>
       </c>
-      <c r="B22" s="24"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="23"/>
       <c r="E22" s="15"/>
       <c r="F22" s="1"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="23"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="20"/>
     </row>
     <row r="23" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="16">
         <v>13</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="23"/>
       <c r="E23" s="14"/>
       <c r="F23" s="1"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="23"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="20"/>
     </row>
     <row r="24" spans="1:8" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="21"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="52"/>
       <c r="F24" s="12">
         <f>SUM(F11:F23)</f>
         <v>391200</v>
       </c>
-      <c r="G24" s="22"/>
-      <c r="H24" s="23"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="20"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
@@ -1180,159 +1185,201 @@
       <c r="H25" s="8"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="G26" s="48"/>
+      <c r="H26" s="49"/>
     </row>
     <row r="27" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A27" s="5">
         <v>1</v>
       </c>
-      <c r="B27" s="31" t="s">
+      <c r="B27" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
-      <c r="E27" s="31"/>
-      <c r="F27" s="31"/>
-      <c r="G27" s="31"/>
-      <c r="H27" s="32"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="44"/>
     </row>
     <row r="28" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A28" s="5">
         <v>2</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="32"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="44"/>
     </row>
     <row r="29" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A29" s="5">
         <v>3</v>
       </c>
-      <c r="B29" s="31" t="s">
+      <c r="B29" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="32"/>
+      <c r="C29" s="43"/>
+      <c r="D29" s="43"/>
+      <c r="E29" s="43"/>
+      <c r="F29" s="43"/>
+      <c r="G29" s="43"/>
+      <c r="H29" s="44"/>
     </row>
     <row r="30" spans="1:8" ht="18" x14ac:dyDescent="0.2">
       <c r="A30" s="5">
         <v>4</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="32"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="44"/>
     </row>
     <row r="31" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="5">
         <v>5</v>
       </c>
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="31"/>
-      <c r="E31" s="31"/>
-      <c r="F31" s="31"/>
-      <c r="G31" s="31"/>
-      <c r="H31" s="32"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="43"/>
+      <c r="F31" s="43"/>
+      <c r="G31" s="43"/>
+      <c r="H31" s="44"/>
     </row>
     <row r="32" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="5">
         <v>6</v>
       </c>
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="31"/>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="32"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="44"/>
     </row>
     <row r="33" spans="1:8" ht="74.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5">
         <v>7</v>
       </c>
-      <c r="B33" s="33" t="s">
+      <c r="B33" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="34"/>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45"/>
+      <c r="E33" s="45"/>
+      <c r="F33" s="45"/>
+      <c r="G33" s="45"/>
+      <c r="H33" s="46"/>
     </row>
     <row r="34" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="5">
         <v>8</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="32"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="44"/>
     </row>
     <row r="35" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="5">
         <v>9</v>
       </c>
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="31"/>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="32"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="44"/>
     </row>
     <row r="36" spans="1:8" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>10</v>
       </c>
-      <c r="B36" s="29" t="s">
+      <c r="B36" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="41"/>
+      <c r="F36" s="41"/>
+      <c r="G36" s="41"/>
+      <c r="H36" s="42"/>
     </row>
   </sheetData>
-  <mergeCells count="56">
+  <mergeCells count="55">
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B35:H35"/>
+    <mergeCell ref="B34:H34"/>
+    <mergeCell ref="B33:H33"/>
+    <mergeCell ref="B32:H32"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B27:H27"/>
+    <mergeCell ref="B28:H28"/>
+    <mergeCell ref="B29:H29"/>
+    <mergeCell ref="B30:H30"/>
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E7:H7"/>
     <mergeCell ref="G12:H12"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="G21:H21"/>
@@ -1346,49 +1393,6 @@
     <mergeCell ref="G14:H14"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="A4:H4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="A3:H3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="B36:H36"/>
-    <mergeCell ref="B35:H35"/>
-    <mergeCell ref="B34:H34"/>
-    <mergeCell ref="B33:H33"/>
-    <mergeCell ref="B32:H32"/>
-    <mergeCell ref="B31:H31"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B27:H27"/>
-    <mergeCell ref="B28:H28"/>
-    <mergeCell ref="B29:H29"/>
-    <mergeCell ref="B30:H30"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
